--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.41713066666667</v>
+        <v>74.609651</v>
       </c>
       <c r="H2">
-        <v>166.251392</v>
+        <v>223.828953</v>
       </c>
       <c r="I2">
-        <v>0.08138603925734668</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="J2">
-        <v>0.08138603925734669</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N2">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q2">
-        <v>209.3902477790294</v>
+        <v>193.8482833699497</v>
       </c>
       <c r="R2">
-        <v>1884.512230011264</v>
+        <v>1744.634550329547</v>
       </c>
       <c r="S2">
-        <v>0.03461325077645867</v>
+        <v>0.03678779224286369</v>
       </c>
       <c r="T2">
-        <v>0.03461325077645867</v>
+        <v>0.0367877922428637</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.41713066666667</v>
+        <v>74.609651</v>
       </c>
       <c r="H3">
-        <v>166.251392</v>
+        <v>223.828953</v>
       </c>
       <c r="I3">
-        <v>0.08138603925734668</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="J3">
-        <v>0.08138603925734669</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
         <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q3">
-        <v>240.1447787547023</v>
+        <v>323.3137103422366</v>
       </c>
       <c r="R3">
-        <v>2161.30300879232</v>
+        <v>2909.82339308013</v>
       </c>
       <c r="S3">
-        <v>0.03969712791240208</v>
+        <v>0.0613572501059528</v>
       </c>
       <c r="T3">
-        <v>0.03969712791240208</v>
+        <v>0.06135725010595281</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.41713066666667</v>
+        <v>74.609651</v>
       </c>
       <c r="H4">
-        <v>166.251392</v>
+        <v>223.828953</v>
       </c>
       <c r="I4">
-        <v>0.08138603925734668</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="J4">
-        <v>0.08138603925734669</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N4">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O4">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P4">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q4">
-        <v>26.67810226096356</v>
+        <v>35.00717155768767</v>
       </c>
       <c r="R4">
-        <v>240.102920348672</v>
+        <v>315.064544019189</v>
       </c>
       <c r="S4">
-        <v>0.004410023167713266</v>
+        <v>0.006643528288649995</v>
       </c>
       <c r="T4">
-        <v>0.004410023167713267</v>
+        <v>0.006643528288649996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.41713066666667</v>
+        <v>74.609651</v>
       </c>
       <c r="H5">
-        <v>166.251392</v>
+        <v>223.828953</v>
       </c>
       <c r="I5">
-        <v>0.08138603925734668</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="J5">
-        <v>0.08138603925734669</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N5">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q5">
-        <v>16.12557223941689</v>
+        <v>7.113980483082666</v>
       </c>
       <c r="R5">
-        <v>145.130150154752</v>
+        <v>64.02582434774399</v>
       </c>
       <c r="S5">
-        <v>0.002665637400772669</v>
+        <v>0.00135006424344742</v>
       </c>
       <c r="T5">
-        <v>0.00266563740077267</v>
+        <v>0.00135006424344742</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>597.3747559999999</v>
+        <v>597.374756</v>
       </c>
       <c r="H6">
         <v>1792.124268</v>
       </c>
       <c r="I6">
-        <v>0.8773093221949784</v>
+        <v>0.8498168837991085</v>
       </c>
       <c r="J6">
-        <v>0.8773093221949785</v>
+        <v>0.8498168837991086</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N6">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q6">
-        <v>2257.144075685884</v>
+        <v>1552.078979422415</v>
       </c>
       <c r="R6">
-        <v>20314.29668117295</v>
+        <v>13968.71081480173</v>
       </c>
       <c r="S6">
-        <v>0.3731171568828814</v>
+        <v>0.2945476640127883</v>
       </c>
       <c r="T6">
-        <v>0.3731171568828814</v>
+        <v>0.2945476640127883</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>597.3747559999999</v>
+        <v>597.374756</v>
       </c>
       <c r="H7">
         <v>1792.124268</v>
       </c>
       <c r="I7">
-        <v>0.8773093221949784</v>
+        <v>0.8498168837991085</v>
       </c>
       <c r="J7">
-        <v>0.8773093221949785</v>
+        <v>0.8498168837991086</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
         <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q7">
         <v>2588.665758899587</v>
@@ -883,10 +883,10 @@
         <v>23297.99183009628</v>
       </c>
       <c r="S7">
-        <v>0.4279193421834082</v>
+        <v>0.4912671728068334</v>
       </c>
       <c r="T7">
-        <v>0.4279193421834082</v>
+        <v>0.4912671728068334</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>597.3747559999999</v>
+        <v>597.374756</v>
       </c>
       <c r="H8">
         <v>1792.124268</v>
       </c>
       <c r="I8">
-        <v>0.8773093221949784</v>
+        <v>0.8498168837991085</v>
       </c>
       <c r="J8">
-        <v>0.8773093221949785</v>
+        <v>0.8498168837991086</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N8">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O8">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P8">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q8">
-        <v>287.5793935370986</v>
+        <v>280.2908241391427</v>
       </c>
       <c r="R8">
-        <v>2588.214541833888</v>
+        <v>2522.617417252284</v>
       </c>
       <c r="S8">
-        <v>0.04753830597280759</v>
+        <v>0.05319252988345152</v>
       </c>
       <c r="T8">
-        <v>0.0475383059728076</v>
+        <v>0.05319252988345152</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>597.3747559999999</v>
+        <v>597.374756</v>
       </c>
       <c r="H9">
         <v>1792.124268</v>
       </c>
       <c r="I9">
-        <v>0.8773093221949784</v>
+        <v>0.8498168837991085</v>
       </c>
       <c r="J9">
-        <v>0.8773093221949785</v>
+        <v>0.8498168837991086</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N9">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q9">
-        <v>173.8272924995786</v>
+        <v>56.95928473476267</v>
       </c>
       <c r="R9">
-        <v>1564.445632496208</v>
+        <v>512.6335626128639</v>
       </c>
       <c r="S9">
-        <v>0.02873451715588127</v>
+        <v>0.0108095170960353</v>
       </c>
       <c r="T9">
-        <v>0.02873451715588127</v>
+        <v>0.0108095170960353</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.92897333333334</v>
+        <v>30.48438</v>
       </c>
       <c r="H10">
-        <v>83.78692000000001</v>
+        <v>91.45313999999999</v>
       </c>
       <c r="I10">
-        <v>0.04101671257207979</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="J10">
-        <v>0.0410167125720798</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N10">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q10">
-        <v>105.5279220726267</v>
+        <v>79.20348980854</v>
       </c>
       <c r="R10">
-        <v>949.7512986536401</v>
+        <v>712.83140827686</v>
       </c>
       <c r="S10">
-        <v>0.01744429107545205</v>
+        <v>0.01503093799611138</v>
       </c>
       <c r="T10">
-        <v>0.01744429107545205</v>
+        <v>0.01503093799611138</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.92897333333334</v>
+        <v>30.48438</v>
       </c>
       <c r="H11">
-        <v>83.78692000000001</v>
+        <v>91.45313999999999</v>
       </c>
       <c r="I11">
-        <v>0.04101671257207979</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="J11">
-        <v>0.0410167125720798</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
         <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q11">
-        <v>121.0275061392445</v>
+        <v>132.1011139066</v>
       </c>
       <c r="R11">
-        <v>1089.2475552532</v>
+        <v>1188.9100251594</v>
       </c>
       <c r="S11">
-        <v>0.02000644951367505</v>
+        <v>0.02506964853628528</v>
       </c>
       <c r="T11">
-        <v>0.02000644951367505</v>
+        <v>0.02506964853628528</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.92897333333334</v>
+        <v>30.48438</v>
       </c>
       <c r="H12">
-        <v>83.78692000000001</v>
+        <v>91.45313999999999</v>
       </c>
       <c r="I12">
-        <v>0.04101671257207979</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="J12">
-        <v>0.0410167125720798</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N12">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O12">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P12">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q12">
-        <v>13.44515671719111</v>
+        <v>14.30340319498</v>
       </c>
       <c r="R12">
-        <v>121.00641045472</v>
+        <v>128.73062875482</v>
       </c>
       <c r="S12">
-        <v>0.002222551365773455</v>
+        <v>0.002714445627040343</v>
       </c>
       <c r="T12">
-        <v>0.002222551365773455</v>
+        <v>0.002714445627040343</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.92897333333334</v>
+        <v>30.48438</v>
       </c>
       <c r="H13">
-        <v>83.78692000000001</v>
+        <v>91.45313999999999</v>
       </c>
       <c r="I13">
-        <v>0.04101671257207979</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="J13">
-        <v>0.0410167125720798</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N13">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q13">
-        <v>8.126921615057778</v>
+        <v>2.90666531008</v>
       </c>
       <c r="R13">
-        <v>73.14229453552001</v>
+        <v>26.15998779072</v>
       </c>
       <c r="S13">
-        <v>0.001343420617179239</v>
+        <v>0.0005516159219356711</v>
       </c>
       <c r="T13">
-        <v>0.001343420617179239</v>
+        <v>0.000551615921935671</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1960536666666667</v>
+        <v>0.4764796666666666</v>
       </c>
       <c r="H14">
-        <v>0.5881609999999999</v>
+        <v>1.429439</v>
       </c>
       <c r="I14">
-        <v>0.0002879259755950811</v>
+        <v>0.0006778332386049212</v>
       </c>
       <c r="J14">
-        <v>0.0002879259755950812</v>
+        <v>0.0006778332386049213</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N14">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q14">
-        <v>0.7407768202263333</v>
+        <v>1.237973428451222</v>
       </c>
       <c r="R14">
-        <v>6.666991382036999</v>
+        <v>11.141760856061</v>
       </c>
       <c r="S14">
-        <v>0.0001224540976470904</v>
+        <v>0.0002349379034795683</v>
       </c>
       <c r="T14">
-        <v>0.0001224540976470904</v>
+        <v>0.0002349379034795683</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1960536666666667</v>
+        <v>0.4764796666666666</v>
       </c>
       <c r="H15">
-        <v>0.5881609999999999</v>
+        <v>1.429439</v>
       </c>
       <c r="I15">
-        <v>0.0002879259755950811</v>
+        <v>0.0006778332386049212</v>
       </c>
       <c r="J15">
-        <v>0.0002879259755950812</v>
+        <v>0.0006778332386049213</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
         <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q15">
-        <v>0.8495796126455556</v>
+        <v>2.064778575798889</v>
       </c>
       <c r="R15">
-        <v>7.64621651381</v>
+        <v>18.58300718219</v>
       </c>
       <c r="S15">
-        <v>0.0001404397411005516</v>
+        <v>0.0003918458495143971</v>
       </c>
       <c r="T15">
-        <v>0.0001404397411005516</v>
+        <v>0.0003918458495143971</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1960536666666667</v>
+        <v>0.4764796666666666</v>
       </c>
       <c r="H16">
-        <v>0.5881609999999999</v>
+        <v>1.429439</v>
       </c>
       <c r="I16">
-        <v>0.0002879259755950811</v>
+        <v>0.0006778332386049212</v>
       </c>
       <c r="J16">
-        <v>0.0002879259755950812</v>
+        <v>0.0006778332386049213</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N16">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O16">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P16">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q16">
-        <v>0.09438128075288887</v>
+        <v>0.2235663243452222</v>
       </c>
       <c r="R16">
-        <v>0.8494315267759999</v>
+        <v>2.012096919107</v>
       </c>
       <c r="S16">
-        <v>1.560169575208971E-05</v>
+        <v>4.242756938330297E-05</v>
       </c>
       <c r="T16">
-        <v>1.560169575208972E-05</v>
+        <v>4.242756938330298E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4764796666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.429439</v>
+      </c>
+      <c r="I17">
+        <v>0.0006778332386049212</v>
+      </c>
+      <c r="J17">
+        <v>0.0006778332386049213</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="L17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G17">
-        <v>0.1960536666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.5881609999999999</v>
-      </c>
-      <c r="I17">
-        <v>0.0002879259755950811</v>
-      </c>
-      <c r="J17">
-        <v>0.0002879259755950812</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
       <c r="M17">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N17">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q17">
-        <v>0.05704874154622221</v>
+        <v>0.04543201856355555</v>
       </c>
       <c r="R17">
-        <v>0.513438673916</v>
+        <v>0.4088881670719999</v>
       </c>
       <c r="S17">
-        <v>9.430441095349466E-06</v>
+        <v>8.621916227652805E-06</v>
       </c>
       <c r="T17">
-        <v>9.430441095349468E-06</v>
+        <v>8.621916227652805E-06</v>
       </c>
     </row>
   </sheetData>
